--- a/Презентация/Other/Grafics.xlsx
+++ b/Презентация/Other/Grafics.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Технологическая практика/6 семестр/Practice_MAI_6/Презентация/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B4F0C-DFA7-8C4C-A07A-E7022D790B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7D2A9-6291-B941-B6A7-E3BC86167C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8E3E4C7D-7EFD-FC48-AB7D-F98298538DE2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{8E3E4C7D-7EFD-FC48-AB7D-F98298538DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$A$32:$A$53</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$B$32:$B$53</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$59:$A$78</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$59:$B$78</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Лист1!$A$59:$A$78</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Лист1!$B$59:$B$78</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Общее кол-во аэропортов</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Пассажиропоток (млн пасс.)</t>
+  </si>
+  <si>
+    <t>Время безошибочной работы (мин.)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,6 +1217,419 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Время безошибочной работы диспетчера</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t> аэропорта (мин.)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14110307856703658"/>
+          <c:y val="3.483309143686502E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$59:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$59:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29D9-FA46-B505-E4AACF7CA82C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1467634208"/>
+        <c:axId val="1747059024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1467634208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747059024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1747059024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467634208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1294,6 +1710,33 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1798,6 +2241,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2369,6 +3315,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE0E16F-D80C-2EF5-A873-EDABBF542B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2674,19 +3656,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CDA8F4-89A2-6C47-B9D3-26E547F7988B}">
-  <dimension ref="A2:C53"/>
+  <dimension ref="A2:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2937,7 +3918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>2</v>
@@ -3117,6 +4098,178 @@
       </c>
       <c r="B53" s="1">
         <v>88.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>16</v>
+      </c>
+      <c r="B74" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>17</v>
+      </c>
+      <c r="B75" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>18</v>
+      </c>
+      <c r="B76" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>20</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <f>AVERAGE(B59:B78)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
